--- a/donnees_incendie_filtre.xlsx
+++ b/donnees_incendie_filtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>370.5265788417523</v>
+        <v>350.5443456148878</v>
       </c>
       <c r="B2" t="n">
-        <v>4.165194453950188</v>
+        <v>2.101842211468297</v>
       </c>
       <c r="C2" t="n">
-        <v>155364.499517438</v>
+        <v>170154.8310183507</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -471,55 +471,55 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>337.4631100936603</v>
+        <v>300.0434159885139</v>
       </c>
       <c r="B3" t="n">
-        <v>9.253775146949501</v>
+        <v>2.41657889222797</v>
       </c>
       <c r="C3" t="n">
-        <v>171939.5380265853</v>
+        <v>153672.3749381825</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>371.346766213019</v>
+        <v>363.5717694224185</v>
       </c>
       <c r="B4" t="n">
-        <v>5.022271091878513</v>
+        <v>8.991850534883003</v>
       </c>
       <c r="C4" t="n">
-        <v>177620.8528717929</v>
+        <v>118498.7728761152</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>303.6715031315826</v>
+        <v>337.1060316243788</v>
       </c>
       <c r="B5" t="n">
-        <v>7.304880389254803</v>
+        <v>6.229666524890193</v>
       </c>
       <c r="C5" t="n">
-        <v>150289.475699065</v>
+        <v>139859.317567083</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>348.7652391345829</v>
+        <v>357.6810565531504</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8888528253905248</v>
+        <v>8.992519002139161</v>
       </c>
       <c r="C6" t="n">
-        <v>162995.6696794882</v>
+        <v>103509.9291850908</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -527,41 +527,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>301.2274930250245</v>
+        <v>349.8197823123306</v>
       </c>
       <c r="B7" t="n">
-        <v>2.756043562681599</v>
+        <v>0.2536257723828828</v>
       </c>
       <c r="C7" t="n">
-        <v>115260.2712903811</v>
+        <v>158057.5779757817</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>331.4401046823461</v>
+        <v>329.3859776207213</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5647722380636411</v>
+        <v>1.446459252481785</v>
       </c>
       <c r="C8" t="n">
-        <v>121941.2846029127</v>
+        <v>182933.8849159328</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>303.8745255641649</v>
+        <v>331.781587155101</v>
       </c>
       <c r="B9" t="n">
-        <v>8.211983530081961</v>
+        <v>0.3801261090952157</v>
       </c>
       <c r="C9" t="n">
-        <v>131186.048324701</v>
+        <v>111577.0932221248</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -569,69 +569,69 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>361.3130848093926</v>
+        <v>351.490382090752</v>
       </c>
       <c r="B10" t="n">
-        <v>2.395918852539324</v>
+        <v>2.158039608825307</v>
       </c>
       <c r="C10" t="n">
-        <v>122377.9258198052</v>
+        <v>187696.2107948778</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>348.5068397744628</v>
+        <v>367.2480352669627</v>
       </c>
       <c r="B11" t="n">
-        <v>4.412749389857956</v>
+        <v>2.323290152891783</v>
       </c>
       <c r="C11" t="n">
-        <v>180770.6707691968</v>
+        <v>146871.5054998491</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>331.7687616289573</v>
+        <v>347.5289538724981</v>
       </c>
       <c r="B12" t="n">
-        <v>3.347361342093222</v>
+        <v>9.531957948619361</v>
       </c>
       <c r="C12" t="n">
-        <v>199679.2582036999</v>
+        <v>197051.645589533</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>356.4284563707224</v>
+        <v>347.2662024293495</v>
       </c>
       <c r="B13" t="n">
-        <v>6.347427653768904</v>
+        <v>9.052599893490873</v>
       </c>
       <c r="C13" t="n">
-        <v>175543.2535615332</v>
+        <v>199681.5725399444</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>310.4143501378345</v>
+        <v>362.1215394350529</v>
       </c>
       <c r="B14" t="n">
-        <v>8.760991676222073</v>
+        <v>7.866039006604053</v>
       </c>
       <c r="C14" t="n">
-        <v>192898.2132908121</v>
+        <v>130514.217496743</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -639,13 +639,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>370.5578604870271</v>
+        <v>367.6489860307295</v>
       </c>
       <c r="B15" t="n">
-        <v>9.864216114793221</v>
+        <v>4.197252462196674</v>
       </c>
       <c r="C15" t="n">
-        <v>101510.8529082091</v>
+        <v>157045.5823196909</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>311.1506734520557</v>
+        <v>332.1816073332155</v>
       </c>
       <c r="B16" t="n">
-        <v>8.490056074703272</v>
+        <v>7.081091637154094</v>
       </c>
       <c r="C16" t="n">
-        <v>129872.1807389166</v>
+        <v>101508.2087755654</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>363.595257538168</v>
+        <v>310.7622705009028</v>
       </c>
       <c r="B17" t="n">
-        <v>6.043658591324453</v>
+        <v>4.498788637614808</v>
       </c>
       <c r="C17" t="n">
-        <v>115994.7062344838</v>
+        <v>100413.6128326099</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -681,41 +681,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>303.0041852984812</v>
+        <v>303.4225587121206</v>
       </c>
       <c r="B18" t="n">
-        <v>8.978177223936838</v>
+        <v>0.4281300425749579</v>
       </c>
       <c r="C18" t="n">
-        <v>141428.369820395</v>
+        <v>101832.726523246</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>336.2692362136758</v>
+        <v>336.834302342412</v>
       </c>
       <c r="B19" t="n">
-        <v>9.583146491753327</v>
+        <v>5.547048844173665</v>
       </c>
       <c r="C19" t="n">
-        <v>105352.5932450859</v>
+        <v>103097.4563208365</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>360.685759919323</v>
+        <v>308.4011462620947</v>
       </c>
       <c r="B20" t="n">
-        <v>6.110317851358208</v>
+        <v>0.8242912387239021</v>
       </c>
       <c r="C20" t="n">
-        <v>171913.2365516779</v>
+        <v>175064.7856296711</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>330.2049603370058</v>
+        <v>370.408774767658</v>
       </c>
       <c r="B21" t="n">
-        <v>8.076996359508495</v>
+        <v>5.4426581586719</v>
       </c>
       <c r="C21" t="n">
-        <v>155597.1833568566</v>
+        <v>104404.9337375501</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>300.873910461803</v>
+        <v>363.7114751736063</v>
       </c>
       <c r="B22" t="n">
-        <v>7.497096700080722</v>
+        <v>5.338430580078677</v>
       </c>
       <c r="C22" t="n">
-        <v>106332.089145503</v>
+        <v>172688.1498129866</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>314.4778623521469</v>
+        <v>353.0793379666634</v>
       </c>
       <c r="B23" t="n">
-        <v>6.299374202225426</v>
+        <v>9.13223552401735</v>
       </c>
       <c r="C23" t="n">
-        <v>198567.1632579842</v>
+        <v>146449.525220831</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>301.3943456672644</v>
+        <v>311.2128014781975</v>
       </c>
       <c r="B24" t="n">
-        <v>6.360172831767075</v>
+        <v>7.81629742228322</v>
       </c>
       <c r="C24" t="n">
-        <v>114591.7907074852</v>
+        <v>153658.5167721356</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>315.022621732767</v>
+        <v>300.3262187169718</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1840971756963605</v>
+        <v>7.981020989735327</v>
       </c>
       <c r="C25" t="n">
-        <v>157126.543929203</v>
+        <v>145161.7254643599</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -793,27 +793,27 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>320.4222234258248</v>
+        <v>336.4309540479413</v>
       </c>
       <c r="B26" t="n">
-        <v>3.310355235426204</v>
+        <v>0.7262525183556878</v>
       </c>
       <c r="C26" t="n">
-        <v>196641.4472193473</v>
+        <v>170570.6782967651</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>350.7803181854773</v>
+        <v>355.4247970023688</v>
       </c>
       <c r="B27" t="n">
-        <v>5.170230130379211</v>
+        <v>4.639924481533462</v>
       </c>
       <c r="C27" t="n">
-        <v>174489.1832035474</v>
+        <v>172302.1800691735</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>326.0665498601111</v>
+        <v>366.6635541229956</v>
       </c>
       <c r="B28" t="n">
-        <v>7.372196613418143</v>
+        <v>6.530818755818004</v>
       </c>
       <c r="C28" t="n">
-        <v>147885.3705661876</v>
+        <v>126352.1714957407</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -835,41 +835,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>329.9118457590621</v>
+        <v>364.4094175877247</v>
       </c>
       <c r="B29" t="n">
-        <v>3.481244840354351</v>
+        <v>9.551004221636655</v>
       </c>
       <c r="C29" t="n">
-        <v>179558.4737100826</v>
+        <v>129121.5344763176</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>342.0665409134571</v>
+        <v>334.0472669427196</v>
       </c>
       <c r="B30" t="n">
-        <v>8.009867567425866</v>
+        <v>3.488769933555125</v>
       </c>
       <c r="C30" t="n">
-        <v>137149.9725031139</v>
+        <v>128804.2914165274</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>340.7676699351861</v>
+        <v>350.0676183565971</v>
       </c>
       <c r="B31" t="n">
-        <v>2.468068602551602</v>
+        <v>1.406316042841045</v>
       </c>
       <c r="C31" t="n">
-        <v>127338.6611121209</v>
+        <v>103126.2188870646</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>355.4883758755039</v>
+        <v>335.6228749290743</v>
       </c>
       <c r="B32" t="n">
-        <v>6.594272924859488</v>
+        <v>8.481517409013707</v>
       </c>
       <c r="C32" t="n">
-        <v>157773.6554378481</v>
+        <v>170560.7491311945</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>333.068612868987</v>
+        <v>308.562083949717</v>
       </c>
       <c r="B33" t="n">
-        <v>9.651664480176477</v>
+        <v>4.303073847697791</v>
       </c>
       <c r="C33" t="n">
-        <v>132213.9293992395</v>
+        <v>169871.437026341</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -905,27 +905,27 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>310.1177056637799</v>
+        <v>338.1315095950497</v>
       </c>
       <c r="B34" t="n">
-        <v>1.438536199032252</v>
+        <v>4.213456682947534</v>
       </c>
       <c r="C34" t="n">
-        <v>133616.1492212318</v>
+        <v>101447.3227643721</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>332.4156295637536</v>
+        <v>355.6974493247531</v>
       </c>
       <c r="B35" t="n">
-        <v>1.075825959148355</v>
+        <v>9.081380306255486</v>
       </c>
       <c r="C35" t="n">
-        <v>189674.7577695544</v>
+        <v>163586.8654407361</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -933,55 +933,55 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>315.6228276901078</v>
+        <v>313.1050968867571</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6911566134445568</v>
+        <v>2.750822300774018</v>
       </c>
       <c r="C36" t="n">
-        <v>181765.1863656333</v>
+        <v>110723.3996253223</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>359.4621000723221</v>
+        <v>337.8898845272847</v>
       </c>
       <c r="B37" t="n">
-        <v>1.483373674737621</v>
+        <v>9.302839130614331</v>
       </c>
       <c r="C37" t="n">
-        <v>150349.6135838063</v>
+        <v>175402.2595730379</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>351.2072179062199</v>
+        <v>363.293074564558</v>
       </c>
       <c r="B38" t="n">
-        <v>7.703032469882739</v>
+        <v>7.557076019567673</v>
       </c>
       <c r="C38" t="n">
-        <v>175310.9244885895</v>
+        <v>143941.8873715608</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>317.490608674507</v>
+        <v>336.5953781418516</v>
       </c>
       <c r="B39" t="n">
-        <v>3.42336936298557</v>
+        <v>2.380748927668759</v>
       </c>
       <c r="C39" t="n">
-        <v>115792.0150844726</v>
+        <v>174687.3578344242</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -989,27 +989,27 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>341.7564159749578</v>
+        <v>345.9295582539327</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5206631393435535</v>
+        <v>3.636220224664384</v>
       </c>
       <c r="C40" t="n">
-        <v>122098.0326966389</v>
+        <v>197433.7709289562</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>331.834081486963</v>
+        <v>337.1803723705075</v>
       </c>
       <c r="B41" t="n">
-        <v>1.716802574202367</v>
+        <v>2.535515633627519</v>
       </c>
       <c r="C41" t="n">
-        <v>125777.5131420061</v>
+        <v>131049.7074319709</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>366.9978258832116</v>
+        <v>327.9646500805928</v>
       </c>
       <c r="B42" t="n">
-        <v>1.975070318145147</v>
+        <v>1.352324328072173</v>
       </c>
       <c r="C42" t="n">
-        <v>112141.0424966686</v>
+        <v>144840.0001379909</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1031,125 +1031,125 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>332.7997056834859</v>
+        <v>335.7335207271342</v>
       </c>
       <c r="B43" t="n">
-        <v>9.709067389707878</v>
+        <v>1.51590730874598</v>
       </c>
       <c r="C43" t="n">
-        <v>144005.8811354755</v>
+        <v>136263.2651956335</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>304.6389756171774</v>
+        <v>306.4653254227596</v>
       </c>
       <c r="B44" t="n">
-        <v>2.994858287671446</v>
+        <v>5.964653603393453</v>
       </c>
       <c r="C44" t="n">
-        <v>185074.5882076572</v>
+        <v>159769.0824125503</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>308.0128190917833</v>
+        <v>370.5864702353604</v>
       </c>
       <c r="B45" t="n">
-        <v>8.400361598719519</v>
+        <v>9.681697327147464</v>
       </c>
       <c r="C45" t="n">
-        <v>160234.7560711238</v>
+        <v>152570.6184043944</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>345.7641008176892</v>
+        <v>353.3971636547659</v>
       </c>
       <c r="B46" t="n">
-        <v>8.445760813969368</v>
+        <v>9.700574598209412</v>
       </c>
       <c r="C46" t="n">
-        <v>181847.3307955936</v>
+        <v>132753.264688704</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>357.50590017242</v>
+        <v>338.7266574260181</v>
       </c>
       <c r="B47" t="n">
-        <v>4.369559887030558</v>
+        <v>6.989522440330676</v>
       </c>
       <c r="C47" t="n">
-        <v>190623.5158594405</v>
+        <v>195723.4982814048</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>345.6210468303335</v>
+        <v>311.2308661799017</v>
       </c>
       <c r="B48" t="n">
-        <v>7.667137631069679</v>
+        <v>1.070691528181935</v>
       </c>
       <c r="C48" t="n">
-        <v>136886.6103621295</v>
+        <v>106419.6823163591</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>330.259190449452</v>
+        <v>308.6961707536036</v>
       </c>
       <c r="B49" t="n">
-        <v>4.095983385036139</v>
+        <v>3.825860670906061</v>
       </c>
       <c r="C49" t="n">
-        <v>167160.4505055173</v>
+        <v>178944.6176730198</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>348.6439517953874</v>
+        <v>355.8881705823999</v>
       </c>
       <c r="B50" t="n">
-        <v>9.841444018101672</v>
+        <v>6.66266835800295</v>
       </c>
       <c r="C50" t="n">
-        <v>190725.9718247009</v>
+        <v>151072.3067951703</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>347.4620988579378</v>
+        <v>366.8537383049309</v>
       </c>
       <c r="B51" t="n">
-        <v>1.124253570018638</v>
+        <v>4.93446382700257</v>
       </c>
       <c r="C51" t="n">
-        <v>131373.1324092348</v>
+        <v>174307.034715055</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>325.6268573604341</v>
+        <v>301.0697216324622</v>
       </c>
       <c r="B52" t="n">
-        <v>1.14146225518847</v>
+        <v>9.127579551729001</v>
       </c>
       <c r="C52" t="n">
-        <v>161701.2763161484</v>
+        <v>195823.1027815058</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>302.1611298594061</v>
+        <v>341.8630325886108</v>
       </c>
       <c r="B53" t="n">
-        <v>3.371852694895137</v>
+        <v>3.523587817907096</v>
       </c>
       <c r="C53" t="n">
-        <v>139540.8400833616</v>
+        <v>123930.0124520677</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>301.6024472997843</v>
+        <v>315.9992635740371</v>
       </c>
       <c r="B54" t="n">
-        <v>1.612797758457157</v>
+        <v>9.803848644206427</v>
       </c>
       <c r="C54" t="n">
-        <v>179565.2300744702</v>
+        <v>197878.7208120819</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>349.6065786325592</v>
+        <v>334.9502357620127</v>
       </c>
       <c r="B55" t="n">
-        <v>7.139307716605</v>
+        <v>6.342081457590596</v>
       </c>
       <c r="C55" t="n">
-        <v>178360.7727720087</v>
+        <v>182241.7631126329</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1213,27 +1213,27 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>318.5452707873727</v>
+        <v>333.1473356358352</v>
       </c>
       <c r="B56" t="n">
-        <v>4.416695713079696</v>
+        <v>9.393531471970595</v>
       </c>
       <c r="C56" t="n">
-        <v>184327.4692224895</v>
+        <v>178668.6983366728</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>367.4410125962995</v>
+        <v>360.2161777485432</v>
       </c>
       <c r="B57" t="n">
-        <v>2.365546342770021</v>
+        <v>4.303136810431191</v>
       </c>
       <c r="C57" t="n">
-        <v>190124.6891528038</v>
+        <v>168006.2420591558</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>356.3750876707592</v>
+        <v>339.9631033481068</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7222176146965897</v>
+        <v>7.913865956113026</v>
       </c>
       <c r="C58" t="n">
-        <v>112546.8795454538</v>
+        <v>181374.0053987713</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>344.537171233885</v>
+        <v>353.3928973857215</v>
       </c>
       <c r="B59" t="n">
-        <v>2.832651128460248</v>
+        <v>1.187544659465946</v>
       </c>
       <c r="C59" t="n">
-        <v>160070.7371524902</v>
+        <v>157567.0821636757</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1269,41 +1269,41 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>372.6705654529168</v>
+        <v>330.5251492911587</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6139205236164247</v>
+        <v>7.924561280273764</v>
       </c>
       <c r="C60" t="n">
-        <v>131702.1836818328</v>
+        <v>176794.0044701654</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>345.6407350563562</v>
+        <v>324.1178469780002</v>
       </c>
       <c r="B61" t="n">
-        <v>1.048432130387853</v>
+        <v>2.280065887868109</v>
       </c>
       <c r="C61" t="n">
-        <v>183783.9131511152</v>
+        <v>133132.0547291633</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>325.9952440714329</v>
+        <v>355.5911833873566</v>
       </c>
       <c r="B62" t="n">
-        <v>6.221463578159375</v>
+        <v>6.936894290265633</v>
       </c>
       <c r="C62" t="n">
-        <v>190257.5249044121</v>
+        <v>199840.0242667556</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -1311,41 +1311,41 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>372.6387389992024</v>
+        <v>341.9506395803099</v>
       </c>
       <c r="B63" t="n">
-        <v>1.507954206124708</v>
+        <v>8.370070341753445</v>
       </c>
       <c r="C63" t="n">
-        <v>108179.8202403506</v>
+        <v>140855.4701627318</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>308.2737928359301</v>
+        <v>366.2413195085171</v>
       </c>
       <c r="B64" t="n">
-        <v>5.251262962394848</v>
+        <v>7.312836754300306</v>
       </c>
       <c r="C64" t="n">
-        <v>152788.1240490775</v>
+        <v>110722.4064783434</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>342.2414109190846</v>
+        <v>335.6457569068968</v>
       </c>
       <c r="B65" t="n">
-        <v>8.229267967604708</v>
+        <v>3.653431096830229</v>
       </c>
       <c r="C65" t="n">
-        <v>130495.2638415737</v>
+        <v>125575.2583350531</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1353,41 +1353,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>338.2291470045888</v>
+        <v>330.5212407931209</v>
       </c>
       <c r="B66" t="n">
-        <v>0.687195372898225</v>
+        <v>7.399011768601046</v>
       </c>
       <c r="C66" t="n">
-        <v>160945.1778285573</v>
+        <v>161592.1599930875</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>329.8947203991436</v>
+        <v>315.8173772852901</v>
       </c>
       <c r="B67" t="n">
-        <v>1.985998697132038</v>
+        <v>6.229119654940476</v>
       </c>
       <c r="C67" t="n">
-        <v>110878.1482972712</v>
+        <v>197956.7366016689</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>335.9461506684277</v>
+        <v>307.289625045564</v>
       </c>
       <c r="B68" t="n">
-        <v>2.614854915892755</v>
+        <v>7.670017270569561</v>
       </c>
       <c r="C68" t="n">
-        <v>142857.3886477636</v>
+        <v>186456.2118535919</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -1395,27 +1395,27 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>318.468005737509</v>
+        <v>357.4602160036437</v>
       </c>
       <c r="B69" t="n">
-        <v>7.863961459883536</v>
+        <v>3.728411651070015</v>
       </c>
       <c r="C69" t="n">
-        <v>184284.6958759891</v>
+        <v>161848.7886020075</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>315.0948899114337</v>
+        <v>304.4751266781585</v>
       </c>
       <c r="B70" t="n">
-        <v>5.946265282612231</v>
+        <v>3.927594114886292</v>
       </c>
       <c r="C70" t="n">
-        <v>113843.4153511295</v>
+        <v>192878.2920945904</v>
       </c>
       <c r="D70" t="n">
         <v>1</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>369.7620878859731</v>
+        <v>344.4296529831306</v>
       </c>
       <c r="B71" t="n">
-        <v>8.47109807263767</v>
+        <v>7.879792940647725</v>
       </c>
       <c r="C71" t="n">
-        <v>104796.8022927334</v>
+        <v>182421.2259425577</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>349.6721495739682</v>
+        <v>340.1478722104274</v>
       </c>
       <c r="B72" t="n">
-        <v>9.067947589414556</v>
+        <v>9.99432597416164</v>
       </c>
       <c r="C72" t="n">
-        <v>177145.0481379239</v>
+        <v>180902.4572673385</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1451,55 +1451,55 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>306.3717305628821</v>
+        <v>307.8401248407312</v>
       </c>
       <c r="B73" t="n">
-        <v>9.289075637069335</v>
+        <v>3.405932027044386</v>
       </c>
       <c r="C73" t="n">
-        <v>112964.6278064407</v>
+        <v>115014.1347748776</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>336.11233724041</v>
+        <v>310.0479175977717</v>
       </c>
       <c r="B74" t="n">
-        <v>6.119107360302499</v>
+        <v>4.234945256146735</v>
       </c>
       <c r="C74" t="n">
-        <v>194818.2173184691</v>
+        <v>145668.0403793538</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>312.4139729576272</v>
+        <v>342.8202243818081</v>
       </c>
       <c r="B75" t="n">
-        <v>3.783813900971398</v>
+        <v>8.022598516331215</v>
       </c>
       <c r="C75" t="n">
-        <v>188588.6697327721</v>
+        <v>152505.2620544544</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>330.2589672518042</v>
+        <v>307.019179711066</v>
       </c>
       <c r="B76" t="n">
-        <v>1.441562689486667</v>
+        <v>6.12525237375245</v>
       </c>
       <c r="C76" t="n">
-        <v>132153.4572196138</v>
+        <v>194988.295287093</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>310.0246610431289</v>
+        <v>339.871684346345</v>
       </c>
       <c r="B77" t="n">
-        <v>0.772086545195344</v>
+        <v>8.208273641088033</v>
       </c>
       <c r="C77" t="n">
-        <v>141947.0307067398</v>
+        <v>133491.6981249372</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>353.1611163648122</v>
+        <v>315.9358975073729</v>
       </c>
       <c r="B78" t="n">
-        <v>2.933801524262192</v>
+        <v>9.309726366799172</v>
       </c>
       <c r="C78" t="n">
-        <v>109021.0552873063</v>
+        <v>143818.3570537371</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>309.9822807058707</v>
+        <v>305.5172319744258</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8738464259667122</v>
+        <v>0.2181418802893309</v>
       </c>
       <c r="C79" t="n">
-        <v>178761.7776925405</v>
+        <v>162547.4157804794</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>310.1772394902569</v>
+        <v>318.7534872748437</v>
       </c>
       <c r="B80" t="n">
-        <v>4.067151995812472</v>
+        <v>8.085075608938153</v>
       </c>
       <c r="C80" t="n">
-        <v>152976.3374438273</v>
+        <v>165648.6983983864</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>328.6278128761579</v>
+        <v>351.222463223725</v>
       </c>
       <c r="B81" t="n">
-        <v>5.956571261520636</v>
+        <v>3.892813821856338</v>
       </c>
       <c r="C81" t="n">
-        <v>107308.6960817782</v>
+        <v>116220.8291214698</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>305.5603285929611</v>
+        <v>317.1944810259491</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402481772493758</v>
+        <v>3.61846246605114</v>
       </c>
       <c r="C82" t="n">
-        <v>179674.6208728752</v>
+        <v>148011.751558362</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>330.5918213504469</v>
+        <v>364.5577085730035</v>
       </c>
       <c r="B83" t="n">
-        <v>3.209326226721536</v>
+        <v>9.399565713284314</v>
       </c>
       <c r="C83" t="n">
-        <v>135679.4770613932</v>
+        <v>190530.1335129427</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>312.5154227701811</v>
+        <v>313.623735876298</v>
       </c>
       <c r="B84" t="n">
-        <v>3.721584258496526</v>
+        <v>1.28274046148718</v>
       </c>
       <c r="C84" t="n">
-        <v>184764.3187579709</v>
+        <v>167810.7021444677</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -1619,27 +1619,27 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>355.4835048959269</v>
+        <v>328.7176681260452</v>
       </c>
       <c r="B85" t="n">
-        <v>9.012926987685445</v>
+        <v>7.636136866492839</v>
       </c>
       <c r="C85" t="n">
-        <v>188345.5514812248</v>
+        <v>163021.2522278748</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>344.1663676020871</v>
+        <v>302.7697250485571</v>
       </c>
       <c r="B86" t="n">
-        <v>2.615531723440542</v>
+        <v>3.353175198765206</v>
       </c>
       <c r="C86" t="n">
-        <v>177447.9648714568</v>
+        <v>120596.320944536</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>305.6835626238517</v>
+        <v>305.3139961286772</v>
       </c>
       <c r="B87" t="n">
-        <v>4.189115444342071</v>
+        <v>9.63188164479479</v>
       </c>
       <c r="C87" t="n">
-        <v>161143.9765928422</v>
+        <v>189010.6276078768</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1661,41 +1661,41 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>350.6601320843325</v>
+        <v>369.0005007196144</v>
       </c>
       <c r="B88" t="n">
-        <v>3.192456481878492</v>
+        <v>9.415743129725422</v>
       </c>
       <c r="C88" t="n">
-        <v>118950.2126730025</v>
+        <v>142685.7287175994</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>304.274274554861</v>
+        <v>314.0832739659851</v>
       </c>
       <c r="B89" t="n">
-        <v>7.80792986302936</v>
+        <v>1.641632521611632</v>
       </c>
       <c r="C89" t="n">
-        <v>174637.103835036</v>
+        <v>117178.759205725</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>357.3519658855266</v>
+        <v>330.8031857072493</v>
       </c>
       <c r="B90" t="n">
-        <v>2.734906634835603</v>
+        <v>1.328301918066338</v>
       </c>
       <c r="C90" t="n">
-        <v>102939.3392128966</v>
+        <v>176789.5363626627</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>302.3567425195316</v>
+        <v>353.0970034542228</v>
       </c>
       <c r="B91" t="n">
-        <v>4.096923125907233</v>
+        <v>6.529157010751861</v>
       </c>
       <c r="C91" t="n">
-        <v>168812.8481782386</v>
+        <v>140559.0736915132</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>328.7500873270786</v>
+        <v>311.7086604096692</v>
       </c>
       <c r="B92" t="n">
-        <v>6.338618125671913</v>
+        <v>1.517075469520341</v>
       </c>
       <c r="C92" t="n">
-        <v>164160.795274779</v>
+        <v>147023.3489396408</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1731,27 +1731,27 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>323.10351425568</v>
+        <v>352.3412498043034</v>
       </c>
       <c r="B93" t="n">
-        <v>7.267148408067148</v>
+        <v>9.241004392598942</v>
       </c>
       <c r="C93" t="n">
-        <v>166980.5617151905</v>
+        <v>137082.9405516523</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>314.4090351241368</v>
+        <v>364.1975365536338</v>
       </c>
       <c r="B94" t="n">
-        <v>7.177089023187254</v>
+        <v>9.883535390964274</v>
       </c>
       <c r="C94" t="n">
-        <v>178915.9455221486</v>
+        <v>161378.9924364107</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -1759,55 +1759,55 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>306.4530761733234</v>
+        <v>334.9075468477738</v>
       </c>
       <c r="B95" t="n">
-        <v>5.458895716118652</v>
+        <v>8.211655485879842</v>
       </c>
       <c r="C95" t="n">
-        <v>140679.4839784118</v>
+        <v>157462.9083094142</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>330.4088007943635</v>
+        <v>320.5492421741989</v>
       </c>
       <c r="B96" t="n">
-        <v>9.856388464555689</v>
+        <v>8.193960524797252</v>
       </c>
       <c r="C96" t="n">
-        <v>144643.5609511419</v>
+        <v>134579.7078855757</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>355.8740169840324</v>
+        <v>340.8511818629282</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7263891880770479</v>
+        <v>4.071209070002388</v>
       </c>
       <c r="C97" t="n">
-        <v>129883.9696044974</v>
+        <v>151333.8362533849</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>326.3381289339064</v>
+        <v>367.7853811813628</v>
       </c>
       <c r="B98" t="n">
-        <v>3.120747611849558</v>
+        <v>5.151877720671532</v>
       </c>
       <c r="C98" t="n">
-        <v>123470.4686072592</v>
+        <v>144140.1273758927</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -1815,27 +1815,27 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>322.6600194233185</v>
+        <v>367.7621212741797</v>
       </c>
       <c r="B99" t="n">
-        <v>2.528459848494192</v>
+        <v>9.981273541161043</v>
       </c>
       <c r="C99" t="n">
-        <v>111130.2453470014</v>
+        <v>122610.1137913321</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>304.5514368093367</v>
+        <v>354.6514577079575</v>
       </c>
       <c r="B100" t="n">
-        <v>6.936645023182737</v>
+        <v>2.456954642754718</v>
       </c>
       <c r="C100" t="n">
-        <v>156083.6178084022</v>
+        <v>118938.6728248847</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
@@ -1843,41 +1843,41 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>346.4563103909528</v>
+        <v>302.6680250490963</v>
       </c>
       <c r="B101" t="n">
-        <v>4.669204009260727</v>
+        <v>6.146133957925199</v>
       </c>
       <c r="C101" t="n">
-        <v>181057.5050974391</v>
+        <v>177099.5893815188</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>352.4930087059377</v>
+        <v>355.0787882619572</v>
       </c>
       <c r="B102" t="n">
-        <v>2.124361427680305</v>
+        <v>0.9930735588980666</v>
       </c>
       <c r="C102" t="n">
-        <v>141278.8847580151</v>
+        <v>154216.7738156168</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>370.4165461127041</v>
+        <v>313.8509012589102</v>
       </c>
       <c r="B103" t="n">
-        <v>4.405399514594698</v>
+        <v>8.347149604503661</v>
       </c>
       <c r="C103" t="n">
-        <v>127136.7431834463</v>
+        <v>115432.3932067479</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -1885,16 +1885,86 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>341.1932080095154</v>
+        <v>363.4683574958686</v>
       </c>
       <c r="B104" t="n">
-        <v>2.505994439465421</v>
+        <v>1.734861572679229</v>
       </c>
       <c r="C104" t="n">
-        <v>159904.7845978488</v>
+        <v>129309.3278623594</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>370.207837281973</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.122633609612668</v>
+      </c>
+      <c r="C105" t="n">
+        <v>107286.0696653403</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>311.8322585036943</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.677421817421742</v>
+      </c>
+      <c r="C106" t="n">
+        <v>128172.7169007884</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>320.5627216581233</v>
+      </c>
+      <c r="B107" t="n">
+        <v>8.605327245977412</v>
+      </c>
+      <c r="C107" t="n">
+        <v>117060.2224426126</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>354.9978264067979</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.665901851017694</v>
+      </c>
+      <c r="C108" t="n">
+        <v>165815.5265939799</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>370.0975381546481</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.06247389525796</v>
+      </c>
+      <c r="C109" t="n">
+        <v>157503.8423977611</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
